--- a/input/power_budget.xlsx
+++ b/input/power_budget.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_hw\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D52D8B-75BB-4C53-8C3C-E35006D40EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47B020-2092-4E8E-8852-0B5313AE4136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="4680" windowWidth="16995" windowHeight="8025" xr2:uid="{A167505A-04D4-416C-9B79-616B1C61F63E}"/>
+    <workbookView xWindow="7170" yWindow="705" windowWidth="19425" windowHeight="10890" activeTab="2" xr2:uid="{A167505A-04D4-416C-9B79-616B1C61F63E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan A" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan B" sheetId="3" r:id="rId2"/>
+    <sheet name="Plan C" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>Device</t>
   </si>
@@ -44,9 +46,6 @@
     <t>OVDD +3.3</t>
   </si>
   <si>
-    <t>+/-15</t>
-  </si>
-  <si>
     <t>LTC2512/24</t>
   </si>
   <si>
@@ -72,12 +71,96 @@
   </si>
   <si>
     <t>LVDS driver</t>
+  </si>
+  <si>
+    <t>AD8599</t>
+  </si>
+  <si>
+    <t>Input stage 1</t>
+  </si>
+  <si>
+    <t>NJM2068</t>
+  </si>
+  <si>
+    <t>THS4131</t>
+  </si>
+  <si>
+    <t>ADC driver</t>
+  </si>
+  <si>
+    <t>Analog Iq</t>
+  </si>
+  <si>
+    <t>Load Ohms</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Antialias</t>
+  </si>
+  <si>
+    <t>mA @ Vd</t>
+  </si>
+  <si>
+    <t>@FS</t>
+  </si>
+  <si>
+    <t>Saturated</t>
+  </si>
+  <si>
+    <t>-6 dB</t>
+  </si>
+  <si>
+    <t>OPA27</t>
+  </si>
+  <si>
+    <t>Reference buffer</t>
+  </si>
+  <si>
+    <t>V+ load</t>
+  </si>
+  <si>
+    <t>Vd (avg):</t>
+  </si>
+  <si>
+    <t>Channel total (mA)</t>
+  </si>
+  <si>
+    <t>Board total (mA)</t>
+  </si>
+  <si>
+    <t>V supply</t>
+  </si>
+  <si>
+    <t>Board total (W)</t>
+  </si>
+  <si>
+    <t>Load current</t>
+  </si>
+  <si>
+    <t>Grand total power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A model of power consumption per input board, including the effect of signal level.   The relatively high voltage  analog supplies use most of the power. Power increases dramatically in saturation (input overload) because of increased analog load current.  </t>
+  </si>
+  <si>
+    <t>Load current is computed from several differential voltages across a effective parallel resistance of the feedback and output loads seen at each stage.  Vd is the differential voltage seen by the load resistance, which reaches ~3V from each rail in satuation.  In linear operation this is the average voltage (giving the average current).</t>
+  </si>
+  <si>
+    <t>Like plan B, but move Stage 2 and Antialias into the driver</t>
+  </si>
+  <si>
+    <t>Changing to +9/-5 analog supplies, giving +8/-4 rails with 1V LDO regulators.  This gives satuation voltage of about +6/-1, or 7V.  Also, put the driver to unity gain and halve the swing for the signals (reducing stage 1 gain by 1/2).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,15 +170,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,14 +216,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,6 +396,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,114 +710,1590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E3986A-5CCB-4F27-A802-4AF52C0DECAE}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>667</v>
+      </c>
+      <c r="G5" s="24">
+        <f>G11/F5 *1000</f>
+        <v>4.7751124437781112</v>
+      </c>
+      <c r="H5" s="24">
+        <f>H11/F5 *1000</f>
+        <v>9.5502248875562223</v>
+      </c>
+      <c r="I5" s="24">
+        <f>I11/F5*1000</f>
+        <v>29.985007496251875</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1300</v>
+      </c>
+      <c r="G6" s="24">
+        <f>G11/F6 *1000</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="H6" s="24">
+        <f>H11/F6 *1000</f>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="I6" s="24">
+        <f>I11/F6*1000</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="24">
+        <f>G11/F7 *1000</f>
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="H7" s="24">
+        <f>H11/F7 *1000 + E7</f>
+        <v>6.37</v>
+      </c>
+      <c r="I7" s="24">
+        <f>I11/F7*1000</f>
+        <v>20</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>857</v>
+      </c>
+      <c r="G8" s="24">
+        <f>G11/F8 *1000</f>
+        <v>3.7164527421236873</v>
+      </c>
+      <c r="H8" s="24">
+        <f>H11/F8 *1000</f>
+        <v>7.4329054842473745</v>
+      </c>
+      <c r="I8" s="24">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <f>C4</f>
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <f>D4</f>
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(E4:E8)</f>
+        <v>34</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
+        <f>SUM(G5:G8)</f>
+        <v>14.126565185901798</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H5:H8)</f>
+        <v>28.253130371803596</v>
+      </c>
+      <c r="I9" s="9">
+        <f>SUM(I5:I8)</f>
+        <v>115.36962288086727</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5">
+        <f>5*0.637</f>
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="H11" s="5">
+        <f>10*0.637</f>
+        <v>6.37</v>
+      </c>
+      <c r="I11" s="6">
+        <v>20</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3.3</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11">
+        <f>C9*3+SUM(C14:C16)</f>
+        <v>48</v>
+      </c>
+      <c r="D18" s="11">
+        <f>D9*3+SUM(D14:D16)</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E18" s="11">
+        <f>E9*3+E16</f>
+        <v>105.3</v>
+      </c>
+      <c r="F18" s="11">
+        <f>F16</f>
+        <v>11</v>
+      </c>
+      <c r="G18" s="12">
+        <f>G9*3</f>
+        <v>42.379695557705396</v>
+      </c>
+      <c r="H18" s="12">
+        <f>H9*3</f>
+        <v>84.759391115410793</v>
+      </c>
+      <c r="I18" s="12">
+        <f>I9*3</f>
+        <v>346.10886864260181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19">
+        <f>C18/1000*C21</f>
+        <v>0.24</v>
+      </c>
+      <c r="D19" s="19">
+        <f>D18/1000*D21</f>
+        <v>0.19100000000000003</v>
+      </c>
+      <c r="E19" s="19">
+        <f>E18/1000*E21</f>
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="F19" s="19">
+        <f>F18/1000*F21</f>
+        <v>0.16499999999999998</v>
+      </c>
+      <c r="G19" s="33">
+        <f>G18/1000*G21+SUM(C19:F19)</f>
+        <v>5.0263908667311616</v>
+      </c>
+      <c r="H19" s="34">
+        <f>H18/1000*H21+SUM(C19:F19)</f>
+        <v>6.2977817334623243</v>
+      </c>
+      <c r="I19" s="26">
+        <f>I18/1000*I21+SUM(C19:F19)</f>
+        <v>14.138266059278056</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28">
+        <v>5</v>
+      </c>
+      <c r="D21" s="28">
+        <v>5</v>
+      </c>
+      <c r="E21" s="28">
+        <v>30</v>
+      </c>
+      <c r="F21" s="28">
+        <v>15</v>
+      </c>
+      <c r="G21" s="28">
+        <v>30</v>
+      </c>
+      <c r="H21" s="28">
+        <v>30</v>
+      </c>
+      <c r="I21" s="29">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="K1:Q5"/>
+    <mergeCell ref="K6:Q10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA10AB4-9CF6-434C-8F3B-0051E4E05D58}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>667</v>
+      </c>
+      <c r="G5" s="24">
+        <f>G11/F5 *1000</f>
+        <v>2.3875562218890556</v>
+      </c>
+      <c r="H5" s="24">
+        <f>H11/F5 *1000</f>
+        <v>4.7751124437781112</v>
+      </c>
+      <c r="I5" s="24">
+        <f>I11/F5*1000</f>
+        <v>10.494752623688155</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1300</v>
+      </c>
+      <c r="G6" s="24">
+        <f>G11/F6 *1000</f>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="H6" s="24">
+        <f>H11/F6 *1000</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="I6" s="24">
+        <f>I11/F6*1000</f>
+        <v>5.3846153846153841</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="24">
+        <f>G11/F7 *1000</f>
+        <v>1.5925</v>
+      </c>
+      <c r="H7" s="24">
+        <f>H11/F7 *1000 + E7</f>
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="I7" s="24">
+        <f>I11/F7*1000</f>
+        <v>7</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>857</v>
+      </c>
+      <c r="G8" s="24">
+        <f>G11/F8 *1000</f>
+        <v>1.8582263710618436</v>
+      </c>
+      <c r="H8" s="24">
+        <f>H11/F8 *1000</f>
+        <v>3.7164527421236873</v>
+      </c>
+      <c r="I8" s="24">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <f>C4</f>
+        <v>16</v>
+      </c>
+      <c r="D9" s="8">
+        <f>D4</f>
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(E4:E8)</f>
+        <v>34</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
+        <f>SUM(G5:G8)</f>
+        <v>7.0632825929508991</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H5:H8)</f>
+        <v>14.126565185901798</v>
+      </c>
+      <c r="I9" s="9">
+        <f>SUM(I5:I8)</f>
+        <v>72.879368008303544</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5">
+        <f>2.5*0.637</f>
+        <v>1.5925</v>
+      </c>
+      <c r="H11" s="5">
+        <f>5*0.637</f>
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>7</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3.3</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11">
+        <f>C9*3+SUM(C14:C16)</f>
+        <v>48</v>
+      </c>
+      <c r="D18" s="11">
+        <f>D9*3+SUM(D14:D16)</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E18" s="11">
+        <f>E9*3+E16</f>
+        <v>105.3</v>
+      </c>
+      <c r="F18" s="11">
+        <f>F16</f>
+        <v>11</v>
+      </c>
+      <c r="G18" s="12">
+        <f>G9*3</f>
+        <v>21.189847778852698</v>
+      </c>
+      <c r="H18" s="12">
+        <f>H9*3</f>
+        <v>42.379695557705396</v>
+      </c>
+      <c r="I18" s="12">
+        <f>I9*3</f>
+        <v>218.63810402491063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19">
+        <f>C18/1000*C21</f>
+        <v>0.24</v>
+      </c>
+      <c r="D19" s="19">
+        <f>D18/1000*D21</f>
+        <v>0.19100000000000003</v>
+      </c>
+      <c r="E19" s="19">
+        <f>E18/1000*E21</f>
+        <v>1.4742</v>
+      </c>
+      <c r="F19" s="19">
+        <f>F18/1000*F21</f>
+        <v>9.8999999999999991E-2</v>
+      </c>
+      <c r="G19" s="33">
+        <f>G18/1000*G21+SUM(C19:F19)</f>
+        <v>2.3008578689039378</v>
+      </c>
+      <c r="H19" s="34">
+        <f>H18/1000*H21+SUM(C19:F19)</f>
+        <v>2.5975157378078757</v>
+      </c>
+      <c r="I19" s="26">
+        <f>I18/1000*I21+SUM(C19:F19)</f>
+        <v>5.0651334563487485</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28">
+        <v>5</v>
+      </c>
+      <c r="D21" s="28">
+        <v>5</v>
+      </c>
+      <c r="E21" s="28">
+        <v>14</v>
+      </c>
+      <c r="F21" s="28">
+        <v>9</v>
+      </c>
+      <c r="G21" s="28">
+        <v>14</v>
+      </c>
+      <c r="H21" s="28">
+        <v>14</v>
+      </c>
+      <c r="I21" s="29">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:Q5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51432EB3-1105-44A2-A5EF-8F26935DE3F6}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>667</v>
+      </c>
+      <c r="G5" s="24">
+        <f>G9/F5 *1000</f>
+        <v>2.3875562218890556</v>
+      </c>
+      <c r="H5" s="24">
+        <f>H9/F5 *1000</f>
+        <v>4.7751124437781112</v>
+      </c>
+      <c r="I5" s="24">
+        <f>I9/F5*1000</f>
+        <v>10.494752623688155</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>857</v>
+      </c>
+      <c r="G6" s="24">
+        <f>G9/F6 *1000</f>
+        <v>1.8582263710618436</v>
+      </c>
+      <c r="H6" s="24">
+        <f>H9/F6 *1000</f>
+        <v>3.7164527421236873</v>
+      </c>
+      <c r="I6" s="24">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <f>C4</f>
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
+        <f>D4</f>
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="8">
+        <f>SUM(E4:E6)</f>
+        <v>26</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
+        <f>SUM(G5:G6)</f>
+        <v>4.2457825929508992</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM(H5:H6)</f>
+        <v>8.4915651859017984</v>
+      </c>
+      <c r="I7" s="9">
+        <f>SUM(I5:I6)</f>
+        <v>60.494752623688157</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5">
+        <f>2.5*0.637</f>
+        <v>1.5925</v>
+      </c>
+      <c r="H9" s="5">
+        <f>5*0.637</f>
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>0.4</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3.3</v>
+      </c>
+      <c r="F14">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11">
+        <f>C7*3+SUM(C12:C14)</f>
+        <v>48</v>
+      </c>
+      <c r="D16" s="11">
+        <f>D7*3+SUM(D12:D14)</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E16" s="11">
+        <f>E7*3+E14</f>
+        <v>81.3</v>
+      </c>
+      <c r="F16" s="11">
+        <f>F14</f>
+        <v>11</v>
+      </c>
+      <c r="G16" s="12">
+        <f>G7*3</f>
+        <v>12.737347778852698</v>
+      </c>
+      <c r="H16" s="12">
+        <f>H7*3</f>
+        <v>25.474695557705395</v>
+      </c>
+      <c r="I16" s="12">
+        <f>I7*3</f>
+        <v>181.48425787106447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19">
+        <f>C16/1000*C19</f>
+        <v>0.24</v>
+      </c>
+      <c r="D17" s="19">
+        <f>D16/1000*D19</f>
+        <v>0.19100000000000003</v>
+      </c>
+      <c r="E17" s="19">
+        <f>E16/1000*E19</f>
+        <v>1.1381999999999999</v>
+      </c>
+      <c r="F17" s="19">
+        <f>F16/1000*F19</f>
+        <v>9.8999999999999991E-2</v>
+      </c>
+      <c r="G17" s="33">
+        <f>G16/1000*G19+SUM(C17:F17)</f>
+        <v>1.8465228689039377</v>
+      </c>
+      <c r="H17" s="34">
+        <f>H16/1000*H19+SUM(C17:F17)</f>
+        <v>2.0248457378078752</v>
+      </c>
+      <c r="I17" s="26">
+        <f>I16/1000*I19+SUM(C17:F17)</f>
+        <v>4.2089796101949029</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28">
+        <v>5</v>
+      </c>
+      <c r="E19" s="28">
+        <v>14</v>
+      </c>
+      <c r="F19" s="28">
+        <v>9</v>
+      </c>
+      <c r="G19" s="28">
+        <v>14</v>
+      </c>
+      <c r="H19" s="28">
+        <v>14</v>
+      </c>
+      <c r="I19" s="29">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:Q5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/power_budget.xlsx
+++ b/input/power_budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_hw\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47B020-2092-4E8E-8852-0B5313AE4136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33C5AC-2883-4456-A7A1-C15931A2A4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="705" windowWidth="19425" windowHeight="10890" activeTab="2" xr2:uid="{A167505A-04D4-416C-9B79-616B1C61F63E}"/>
+    <workbookView xWindow="420" yWindow="1380" windowWidth="19425" windowHeight="10890" activeTab="2" xr2:uid="{A167505A-04D4-416C-9B79-616B1C61F63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan A" sheetId="1" r:id="rId1"/>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="K1" sqref="K1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/power_budget.xlsx
+++ b/input/power_budget.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_hw\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A1EF38-3CF1-4E4B-9142-EACF488D0A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39FA60-A4FC-43A9-B6CC-9D031421B02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="1164" windowWidth="19548" windowHeight="10572" activeTab="2" xr2:uid="{A167505A-04D4-416C-9B79-616B1C61F63E}"/>
-    <workbookView xWindow="1224" yWindow="11844" windowWidth="19644" windowHeight="11436" activeTab="1" xr2:uid="{98C7A632-B63B-4F5F-A047-55BAAA097B0D}"/>
+    <workbookView xWindow="11040" yWindow="6672" windowWidth="15372" windowHeight="16248" activeTab="2" xr2:uid="{A167505A-04D4-416C-9B79-616B1C61F63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Input board" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,6 @@
     <sheet name="Input carryover" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -488,60 +486,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +510,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +885,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -899,30 +896,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="33" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="K1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="14" t="s">
         <v>21</v>
       </c>
@@ -932,13 +929,13 @@
       <c r="I2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -959,18 +956,18 @@
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -991,13 +988,13 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1030,13 +1027,13 @@
         <f>I9/F5*1000</f>
         <v>10.494752623688155</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1063,21 +1060,21 @@
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="6">
         <f>C4</f>
         <v>16</v>
@@ -1103,22 +1100,22 @@
         <f>SUM(I5:I6)</f>
         <v>60.494752623688157</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F9" s="3" t="s">
@@ -1135,44 +1132,44 @@
       <c r="I9" s="5">
         <v>7</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1190,13 +1187,13 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1254,10 +1251,10 @@
       <c r="Q15" s="27"/>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="8">
         <f>C7*3+SUM(C12:C14)</f>
         <v>48</v>
@@ -1288,10 +1285,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="13">
         <f>C16/1000*C19</f>
         <v>0.24</v>
@@ -1320,10 +1317,10 @@
         <f>I16/1000*I19+SUM(C17:F17)</f>
         <v>4.7455481259370318</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="32"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
@@ -1390,9 +1387,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="1">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1404,23 +1398,23 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="38" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1461,16 +1455,16 @@
       <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="34">
         <f>'Input carryover'!G9</f>
         <v>114.60000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="35">
         <f>SUM(B16:B20)</f>
         <v>1658.6</v>
       </c>
@@ -1488,10 +1482,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,57 +1491,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="48" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="41"/>
       <c r="C4">
         <f>'Input board'!C16</f>
         <v>48</v>
@@ -1567,50 +1558,50 @@
         <f>'Input board'!F16</f>
         <v>11</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="28">
         <f>'Input board'!E16+'Input board'!G16</f>
         <v>94.037347778852691</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="28">
         <f>'Input board'!E16+'Input board'!I16</f>
         <v>262.78425787106448</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="F6" s="41" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B8">
@@ -1624,21 +1615,21 @@
         <f>C8</f>
         <v>48</v>
       </c>
-      <c r="F8" s="38">
-        <f>C8*3</f>
+      <c r="F8" s="28">
+        <f t="shared" ref="F8:G11" si="0">C8*3</f>
         <v>144</v>
       </c>
-      <c r="G8" s="38">
-        <f>D8*3</f>
+      <c r="G8" s="28">
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="33">
         <f>F8+F9</f>
         <v>258.60000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B9">
@@ -1652,12 +1643,12 @@
         <f>C9</f>
         <v>38.200000000000003</v>
       </c>
-      <c r="F9" s="38">
-        <f>C9*3</f>
+      <c r="F9" s="28">
+        <f t="shared" si="0"/>
         <v>114.60000000000001</v>
       </c>
-      <c r="G9" s="38">
-        <f>D9*3</f>
+      <c r="G9" s="28">
+        <f t="shared" si="0"/>
         <v>114.60000000000001</v>
       </c>
     </row>
@@ -1668,20 +1659,20 @@
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="28">
         <f>G4+F4</f>
         <v>105.03734777885269</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="28">
         <f>H4+F4</f>
         <v>273.78425787106448</v>
       </c>
-      <c r="F10" s="38">
-        <f>C10*3</f>
+      <c r="F10" s="28">
+        <f t="shared" si="0"/>
         <v>315.11204333655809</v>
       </c>
-      <c r="G10" s="38">
-        <f>D10*3</f>
+      <c r="G10" s="28">
+        <f t="shared" si="0"/>
         <v>821.35277361319345</v>
       </c>
     </row>
@@ -1692,20 +1683,20 @@
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="28">
         <f>G4</f>
         <v>94.037347778852691</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="28">
         <f>H4</f>
         <v>262.78425787106448</v>
       </c>
-      <c r="F11" s="38">
-        <f>C11*3</f>
+      <c r="F11" s="28">
+        <f t="shared" si="0"/>
         <v>282.11204333655809</v>
       </c>
-      <c r="G11" s="38">
-        <f>D11*3</f>
+      <c r="G11" s="28">
+        <f t="shared" si="0"/>
         <v>788.35277361319345</v>
       </c>
     </row>
